--- a/data/trans_orig/P15D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D56155C1-7891-41E1-A1CC-1E6DE07897FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA6E4AF-8C89-4B4B-9E40-A205F6C14D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09B40CC0-8AC4-4BFE-B968-61ECF5538712}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C745041A-E282-4744-8137-83911FE360B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,49%</t>
+    <t>36,92%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>38,51%</t>
+    <t>37,84%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>91,17%</t>
   </si>
   <si>
-    <t>51,51%</t>
+    <t>63,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>87,29%</t>
   </si>
   <si>
-    <t>61,49%</t>
+    <t>62,16%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,55 +131,55 @@
     <t>16,94%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
   </si>
   <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>83,06%</t>
   </si>
   <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,10 +188,10 @@
     <t>36,65%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>0%</t>
@@ -203,19 +203,19 @@
     <t>25,67%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
   </si>
   <si>
     <t>63,35%</t>
   </si>
   <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -224,64 +224,64 @@
     <t>74,33%</t>
   </si>
   <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC37CA1-D2B7-4A7E-BBDF-48B11AC9C653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2163314D-EB0F-44B4-A52B-58C127DA8836}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P15D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA6E4AF-8C89-4B4B-9E40-A205F6C14D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D9E860-1776-4950-8E34-651BBA6EEB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C745041A-E282-4744-8137-83911FE360B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B685185B-DA29-497B-8F6F-0CB5DF932A98}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>36,92%</t>
+    <t>39,14%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>37,84%</t>
+    <t>39,34%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>91,17%</t>
   </si>
   <si>
-    <t>63,08%</t>
+    <t>60,86%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>87,29%</t>
   </si>
   <si>
-    <t>62,16%</t>
+    <t>60,66%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,55 +131,55 @@
     <t>16,94%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>83,06%</t>
   </si>
   <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,10 +188,10 @@
     <t>36,65%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>0%</t>
@@ -203,19 +203,19 @@
     <t>25,67%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
   </si>
   <si>
     <t>63,35%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -224,64 +224,64 @@
     <t>74,33%</t>
   </si>
   <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2163314D-EB0F-44B4-A52B-58C127DA8836}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A6DA16-F1B5-4ECC-BF92-CD4591D8C411}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P15D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D9E860-1776-4950-8E34-651BBA6EEB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19DCCF9E-798E-455E-9A8B-907C62F95A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B685185B-DA29-497B-8F6F-0CB5DF932A98}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F387668-470A-4460-9E21-F9814A5DB3A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>8,83%</t>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>39,14%</t>
+    <t>48,49%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>39,34%</t>
+    <t>38,51%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>91,17%</t>
   </si>
   <si>
-    <t>60,86%</t>
+    <t>51,51%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>87,29%</t>
   </si>
   <si>
-    <t>60,66%</t>
+    <t>61,49%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,55 +131,55 @@
     <t>16,94%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>83,06%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,10 +188,10 @@
     <t>36,65%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
   </si>
   <si>
     <t>0%</t>
@@ -203,19 +203,19 @@
     <t>25,67%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
   </si>
   <si>
     <t>63,35%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -224,64 +224,64 @@
     <t>74,33%</t>
   </si>
   <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A6DA16-F1B5-4ECC-BF92-CD4591D8C411}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D2D771-2FBB-4993-B393-496E595D3068}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P15D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19DCCF9E-798E-455E-9A8B-907C62F95A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{295ACD3D-F38C-4FFD-89B7-0DC2DDE27EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F387668-470A-4460-9E21-F9814A5DB3A8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6CC320C1-E9D3-4F82-BA8B-28A8999E5FFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D2D771-2FBB-4993-B393-496E595D3068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08B2BB6-9494-4296-BDED-4D50E1BC5948}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
